--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\대학\3학년 1학기\팀 프로젝트\기획서\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\대학\3학년 1학기\팀 프로젝트\기획서\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스캔은 일정 지점에서 사용합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스캔 범위</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>다른 형태 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 인식</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -490,6 +482,70 @@
   </si>
   <si>
     <t>조정 가능 해야하는 부분 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식등급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 가능해야 하는 부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A[A~C]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 예시: 기본값[수정범위]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위가 없는 경우 기본값만 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔은 패틑롤 지점에서 사용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 장소에서 지정된 지역에 있는 플레이어에게 공격함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 인식시 물건을 던짐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위를 벗어나면 대기상태로 전환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 괴도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨로우[가명]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 가능해야하는 부분, 신뮤 몬스터 추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,13 +943,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,8 +1612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2801664" y="5259444"/>
-          <a:ext cx="104775" cy="408918"/>
+          <a:off x="2883662" y="5201880"/>
+          <a:ext cx="104775" cy="403948"/>
           <a:chOff x="2760279" y="5155325"/>
           <a:chExt cx="104775" cy="410232"/>
         </a:xfrm>
@@ -1654,8 +1719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="961993" y="7973891"/>
-          <a:ext cx="3975620" cy="2679550"/>
+          <a:off x="963650" y="7885681"/>
+          <a:ext cx="4053062" cy="2647248"/>
           <a:chOff x="796404" y="7905750"/>
           <a:chExt cx="3980749" cy="2717650"/>
         </a:xfrm>
@@ -1971,8 +2036,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1868878" y="8392765"/>
-          <a:ext cx="347870" cy="345161"/>
+          <a:off x="1950876" y="8299586"/>
+          <a:ext cx="347870" cy="342676"/>
           <a:chOff x="6982239" y="8589064"/>
           <a:chExt cx="554935" cy="546652"/>
         </a:xfrm>
@@ -2190,6 +2255,418 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2927171</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>798053</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4393193" y="12949126"/>
+          <a:ext cx="1192208" cy="1779787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31571</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>445214</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>179683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="719028" y="14163261"/>
+          <a:ext cx="1192208" cy="577248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3271630</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422412</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="타원 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4737652" y="12440479"/>
+          <a:ext cx="472108" cy="472108"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>적</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173933</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110986</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>193815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="타원 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861390" y="13318435"/>
+          <a:ext cx="715618" cy="815010"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1731065</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728869" y="13069957"/>
+          <a:ext cx="2468218" cy="1648239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>641073</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>160684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1217543</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1328530" y="13064988"/>
+          <a:ext cx="1355035" cy="278295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>인식범위</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563216</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554934</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="원호 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21005558" flipH="1">
+          <a:off x="1250673" y="12490174"/>
+          <a:ext cx="4091609" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12040464"/>
+            <a:gd name="adj2" fmla="val 20860117"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2943,8 +3420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="795131" y="14701631"/>
-          <a:ext cx="3914808" cy="2717650"/>
+          <a:off x="791233" y="15073374"/>
+          <a:ext cx="3912373" cy="2793655"/>
           <a:chOff x="753717" y="14287500"/>
           <a:chExt cx="3914808" cy="2717650"/>
         </a:xfrm>
@@ -4694,7 +5171,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4733,32 +5210,38 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -4781,15 +5264,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D52"/>
+  <dimension ref="B2:D72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
   </cols>
@@ -5069,6 +5552,124 @@
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5080,69 +5681,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F86"/>
+  <dimension ref="B2:G86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="34"/>
+      <c r="E11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="36"/>
+      <c r="E12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
@@ -5151,104 +5774,120 @@
       </c>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="34"/>
+      <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="36"/>
+      <c r="E29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
         <v>45</v>
       </c>
@@ -5257,304 +5896,325 @@
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="34"/>
+      <c r="E48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="36"/>
+      <c r="E49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="5">
+        <v>5</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="25"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="27"/>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="34"/>
+      <c r="E66" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="36"/>
+      <c r="E67" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="15"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="25"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="11"/>
     </row>
-    <row r="71" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B71" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
@@ -5590,6 +6250,16 @@
       <c r="D86" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5600,84 +6270,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -5689,10 +6359,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -5703,7 +6373,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2">
         <v>7.5</v>
@@ -5715,10 +6385,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2">
         <v>6</v>
@@ -5729,7 +6399,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -5741,10 +6411,10 @@
         <v>14</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2">
         <v>7</v>
@@ -5755,55 +6425,55 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
       <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
       <c r="I20" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -5821,7 +6491,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -5829,7 +6499,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="I22" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -5895,55 +6565,55 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="I28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="I29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="I29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
@@ -5961,7 +6631,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5969,7 +6639,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="I31" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -6035,55 +6705,55 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
       <c r="I37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="J37" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="I38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="I38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
@@ -6101,7 +6771,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -6109,7 +6779,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="I40" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -6175,7 +6845,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6217,86 +6887,86 @@
   <sheetData>
     <row r="2" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="I10" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="I10" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6386,189 +7056,4 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F643F22955DFBC4D9DD3A7624601EBD1" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0a3e87a620d9dfab8666112917a1e9a4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8050024c-c185-454c-b2be-1c9e4408ac71" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bedd63959bada6aad395817f67cc735" ns2:_="">
-    <xsd:import namespace="8050024c-c185-454c-b2be-1c9e4408ac71"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8050024c-c185-454c-b2be-1c9e4408ac71" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77B087C-A552-4CFC-9CD0-D87B7D3E9059}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7637FD2-2E79-4711-AB3A-211F6630D28B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B551CF8E-D678-438F-AE8D-DC974BDA5D0A}"/>
 </file>
--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -546,6 +546,30 @@
   </si>
   <si>
     <t>수정 가능해야하는 부분, 신뮤 몬스터 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식시 추적함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인식시 체력-1 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 거리 내에 플레이어가 있을 시 체력-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전시 시야꺼짐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180도 만 회전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +984,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1612,8 +1639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2883662" y="5201880"/>
-          <a:ext cx="104775" cy="403948"/>
+          <a:off x="2881226" y="5337325"/>
+          <a:ext cx="104775" cy="415641"/>
           <a:chOff x="2760279" y="5155325"/>
           <a:chExt cx="104775" cy="410232"/>
         </a:xfrm>
@@ -1719,8 +1746,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="963650" y="7885681"/>
-          <a:ext cx="4053062" cy="2647248"/>
+          <a:off x="959752" y="8093234"/>
+          <a:ext cx="4061345" cy="2723253"/>
           <a:chOff x="796404" y="7905750"/>
           <a:chExt cx="3980749" cy="2717650"/>
         </a:xfrm>
@@ -2036,8 +2063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1950876" y="8299586"/>
-          <a:ext cx="347870" cy="342676"/>
+          <a:off x="1948440" y="8518831"/>
+          <a:ext cx="347870" cy="348523"/>
           <a:chOff x="6982239" y="8589064"/>
           <a:chExt cx="554935" cy="546652"/>
         </a:xfrm>
@@ -2678,6 +2705,684 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8516471" y="3900208"/>
+          <a:ext cx="647700" cy="444874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="이등변 삼각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9387729" y="3571875"/>
+          <a:ext cx="648260" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>840439</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1019734</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="타원 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023410" y="4011705"/>
+          <a:ext cx="179295" cy="179295"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2218765</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2420471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="타원 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401736" y="3978089"/>
+          <a:ext cx="201706" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>930087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2319618</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="구부러진 연결선 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="0"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="8791016" y="3300131"/>
+          <a:ext cx="33616" cy="1389531"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1246734"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>930086</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2319617</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="구부러진 연결선 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="4"/>
+          <a:endCxn id="66" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8802220" y="3490632"/>
+          <a:ext cx="11205" cy="1389531"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4240330"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="직사각형 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8516471" y="3900208"/>
+          <a:ext cx="647700" cy="444874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265019</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1341344</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="이등변 삼각형 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7662023" y="5263964"/>
+          <a:ext cx="648260" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>840439</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1019734</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="타원 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023410" y="4011705"/>
+          <a:ext cx="179295" cy="179295"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2218765</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2420471</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="타원 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401736" y="3978089"/>
+          <a:ext cx="201706" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>930087</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2319618</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="구부러진 연결선 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="0"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="8791016" y="3300131"/>
+          <a:ext cx="33616" cy="1389531"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1246734"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>930086</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2319617</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="구부러진 연결선 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="4"/>
+          <a:endCxn id="102" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8802220" y="3490632"/>
+          <a:ext cx="11205" cy="1389531"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4240330"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3669,6 +4374,199 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1458296</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="그룹 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6983699" y="4280648"/>
+          <a:ext cx="4418137" cy="1250186"/>
+          <a:chOff x="6983700" y="4563232"/>
+          <a:chExt cx="3121570" cy="967601"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="정육면체 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6983700" y="4776141"/>
+            <a:ext cx="3121570" cy="754692"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 89535"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="정육면체 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7257025" y="4842403"/>
+            <a:ext cx="730332" cy="392694"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>몬스터</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="사다리꼴 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="8033643" y="4492099"/>
+            <a:ext cx="917908" cy="1060174"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 39815"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="직선 화살표 연결선 25"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="25" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7962510" y="4997336"/>
+            <a:ext cx="1592746" cy="24850"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5170,8 +6068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5264,10 +6162,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D72"/>
+  <dimension ref="B2:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5275,34 +6173,36 @@
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
@@ -5312,8 +6212,17 @@
       <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -5321,13 +6230,23 @@
         <v>15</v>
       </c>
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
@@ -5335,20 +6254,39 @@
         <v>18</v>
       </c>
       <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F15" s="9"/>
+      <c r="G15" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
@@ -5356,89 +6294,145 @@
         <v>23</v>
       </c>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="21"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F25" s="9"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
+      <c r="F32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -5681,10 +6675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G86"/>
+  <dimension ref="B2:L86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5692,19 +6686,22 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -5712,7 +6709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -5720,17 +6717,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
@@ -5744,8 +6741,21 @@
       <c r="F11" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
@@ -5759,13 +6769,29 @@
       <c r="F12" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
@@ -5773,80 +6799,139 @@
         <v>39</v>
       </c>
       <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
@@ -5864,7 +6949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
@@ -5882,12 +6967,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
         <v>45</v>
       </c>
@@ -5896,7 +6981,7 @@
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
         <v>47</v>
@@ -6250,7 +7335,9 @@
       <c r="D86" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C11:D11"/>
@@ -6262,7 +7349,8 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="고정 몬스터 패턴" sheetId="2" r:id="rId2"/>
-    <sheet name="이동 몬스터 패턴" sheetId="3" r:id="rId3"/>
+    <sheet name="고정형 몬스터 패턴" sheetId="2" r:id="rId2"/>
+    <sheet name="이동형 몬스터 패턴" sheetId="3" r:id="rId3"/>
     <sheet name="몬스터 인식" sheetId="4" r:id="rId4"/>
     <sheet name="몬스터 로직" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -570,6 +570,14 @@
   </si>
   <si>
     <t>회전!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -967,6 +975,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,9 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4378,13 +4386,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>24846</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1458296</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>140805</xdr:rowOff>
@@ -4396,7 +4404,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6983699" y="4280648"/>
+          <a:off x="7667258" y="4280648"/>
           <a:ext cx="4418137" cy="1250186"/>
           <a:chOff x="6983700" y="4563232"/>
           <a:chExt cx="3121570" cy="967601"/>
@@ -6164,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6267,7 +6275,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="33" t="s">
         <v>133</v>
       </c>
       <c r="H15" s="11"/>
@@ -6281,7 +6289,7 @@
       <c r="F16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="33" t="s">
         <v>134</v>
       </c>
       <c r="H16" s="11"/>
@@ -6675,33 +6683,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L86"/>
+  <dimension ref="B2:N86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="36.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -6709,7 +6717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -6717,81 +6725,93 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="J11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="35"/>
+      <c r="L11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="5" t="s">
         <v>118</v>
       </c>
       <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="37"/>
+      <c r="L12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
@@ -6799,146 +6819,146 @@
         <v>39</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="H14" s="23" t="s">
+      <c r="I14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="J14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-      <c r="H20" s="21" t="s">
+      <c r="I20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="H21" s="27" t="s">
+      <c r="I21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="7" t="s">
         <v>114</v>
       </c>
@@ -6946,17 +6966,20 @@
         <v>115</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="5" t="s">
         <v>118</v>
       </c>
@@ -6964,15 +6987,18 @@
         <v>5</v>
       </c>
       <c r="G29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
         <v>45</v>
       </c>
@@ -6981,7 +7007,7 @@
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
         <v>47</v>
@@ -7074,33 +7100,37 @@
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="34"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="36"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="5" t="s">
         <v>118</v>
       </c>
       <c r="F49" s="5">
         <v>5</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="15"/>
@@ -7197,33 +7227,37 @@
       <c r="B66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="34"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="36"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="5" t="s">
         <v>118</v>
       </c>
       <c r="F67" s="5">
         <v>5</v>
       </c>
-      <c r="G67" s="5"/>
+      <c r="G67" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="15"/>
@@ -7336,8 +7370,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C11:D11"/>
@@ -7518,24 +7552,24 @@
       <c r="C19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="I19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -7544,24 +7578,24 @@
       <c r="C20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
       <c r="I20" s="5" t="s">
         <v>87</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -7658,24 +7692,24 @@
       <c r="C28" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="I28" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
@@ -7684,24 +7718,24 @@
       <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="I29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
@@ -7798,24 +7832,24 @@
       <c r="C37" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
       <c r="I37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J37" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
@@ -7824,24 +7858,24 @@
       <c r="C38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
       <c r="I38" s="5" t="s">
         <v>87</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="K38" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
@@ -8000,11 +8034,11 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
@@ -8032,11 +8066,11 @@
       <c r="B42" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="36"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I43" s="5" t="s">

--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="141">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>대기시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전[가명]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5658,73 +5670,21 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>111</xdr:row>
+          <xdr:rowOff>47624</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
+            <xdr:cNvPr id="5124" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5122"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5123" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5123"/>
+                  <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5762,21 +5722,21 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>98</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>781050</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5124" name="Object 4" hidden="1">
+            <xdr:cNvPr id="5126" name="Object 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5124"/>
+                  <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5797,10 +5757,153 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5127" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>11207</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>11206</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>1135157</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>154081</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5128" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5128"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6172,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6239,7 +6342,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>15</v>
@@ -7994,61 +8097,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K44"/>
+  <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="I10" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F10" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
@@ -8061,75 +8169,107 @@
       <c r="G13" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="29" t="s">
+      <c r="K13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="36" t="s">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G56" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I43" s="5" t="s">
+      <c r="H56" s="39"/>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="G56:I56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5122" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="5124" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5122" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="5124" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5123" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Visio.Drawing.11" shapeId="5126" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>781050</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="5126" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="5127" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -8138,42 +8278,42 @@
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5123" r:id="rId5"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="5127" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5124" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="Visio.Drawing.11" shapeId="5128" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>1133475</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5124" r:id="rId7"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="5128" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -86,11 +86,366 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>유저를 인식시 통로를 막음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 등급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 거리 내에 플레이어가 있을 시 길을 막음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑뷰예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식후</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치된 장소 근처를 천천히 움직이며 감시 하는 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 인식시 증원을 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화가 가능한 콘솔이 존재함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시스템 개요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동형 몬스터에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동형 몬스터에 패턴에 대한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 몬스터의 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 지점을 순찰하는 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 진행방향 정면에 원뿔형 방향으로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 루트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야와 인식범위를 가진체 순찰합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 지점을 순찰하는 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 지점을 순찰 하며 스캔을 통해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽을 통과하여 인식 하지만 스킬을 통해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 가능합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 신호를 인식하면 등장하는 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시 영역에 걸릴시 경고 신호가 보내지고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">드론 몬스터가 이동후 순찰을 하다 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간이 지나면 다시 돌아갑니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 루트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 범위내에 플레이어가 존재시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고신호를 보내서 드론 몬스터를 불러옵니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.시스템 개요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터가 플레이어를 인식하는 시스템을 설명하는 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 인식의 종류와 범위에 대한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 인식의 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 값은 임시 값입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원뿔형 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원뿔형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 설정 범위 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 거리와 범위를 놀려 난이도를 조절하기 위한 기능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계 상승 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 상승 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+  </si>
+  <si>
+    <t>원형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.인식 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 로직</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 개요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 로직을 보여주는 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터의 행동을 종류의 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 로직 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>길막[가명]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>유저를 인식시 통로를 막음</t>
+    <t>이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시[가명]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 고정 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤[가명]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>복귀 시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 인식추가, 로직 추가 및 제작중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정 가능해야하는 부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조절가능해야 하는 부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤 포인트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -98,95 +453,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>패턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 거리 내에 플레이어가 있을 시 길을 막음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑뷰예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식후</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치된 장소 근처를 천천히 움직이며 감시 하는 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 인식시 증원을 요청</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무력화가 가능한 콘솔이 존재함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동형 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 시스템 개요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동형 몬스터에 관한 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동형 몬스터에 패턴에 대한 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 몬스터의 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감시[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패트롤[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 지점을 순찰하는 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 진행방향 정면에 원뿔형 방향으로</t>
+    <t>2019.03.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정 가능 해야하는 부분 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식등급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 가능해야 하는 부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A[A~C]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 예시: 기본값[수정범위]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위가 없는 경우 기본값만 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔은 패틑롤 지점에서 사용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 장소에서 지정된 지역에 있는 플레이어에게 공격함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 인식시 물건을 던짐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위를 벗어나면 대기상태로 전환</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -194,218 +513,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이동 루트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야와 인식범위를 가진체 순찰합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 지점을 순찰하는 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 지점을 순찰 하며 스캔을 통해</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽을 통과하여 인식 하지만 스킬을 통해</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 가능합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔 범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>드론[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 신호를 인식하면 등장하는 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감시 영역에 걸릴시 경고 신호가 보내지고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">드론 몬스터가 이동후 순찰을 하다 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 시간이 지나면 다시 돌아갑니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장 루트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달팽이[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 범위내에 플레이어가 존재시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고신호를 보내서 드론 몬스터를 불러옵니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 인식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.시스템 개요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터가 플레이어를 인식하는 시스템을 설명하는 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 인식의 종류와 범위에 대한 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 인식의 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>거리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 값은 임시 값입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원뿔형 범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원형 범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원뿔형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기본 설정 범위 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 거리와 범위를 놀려 난이도를 조절하기 위한 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1단계 상승 범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 상승 범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시</t>
-  </si>
-  <si>
-    <t>원형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.인식 처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 로직</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 개요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터의 로직을 보여주는 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터의 행동을 종류의 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 로직 종류</t>
+    <t>공격 괴도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨로우[가명]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 가능해야하는 부분, 신뮤 몬스터 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식시 추적함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인식시 체력-1 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 거리 내에 플레이어가 있을 시 체력-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전시 시야꺼짐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180도 만 회전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -413,183 +561,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>길막[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감시[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 고정 몬스터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패트롤[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>복귀 시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 인식추가, 로직 추가 및 제작중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정 가능해야하는 부분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이머</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조절가능해야 하는 부분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>패트롤 포인트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 등급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정 가능 해야하는 부분 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식등급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경 가능해야 하는 부분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A[A~C]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>값 예시: 기본값[수정범위]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위가 없는 경우 기본값만 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔은 패틑롤 지점에서 사용합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지 시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정된 장소에서 지정된 지역에 있는 플레이어에게 공격함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 인식시 물건을 던짐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위를 벗어나면 대기상태로 전환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 괴도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨로우[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 가능해야하는 부분, 신뮤 몬스터 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식시 추적함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인식시 체력-1 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식 거리 내에 플레이어가 있을 시 체력-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전시 시야꺼짐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>180도 만 회전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>회전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MP-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MP-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MS-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MA-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MW-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_FB-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 인식시 증원요청을 하고 정지하는 콘솔 존재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 인식시 즉시 hp감소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 인식시 유저의 방향으로 물건을 던져 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_FW-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_FW-02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4146,7 +4173,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="791233" y="15073374"/>
-          <a:ext cx="3912373" cy="2793655"/>
+          <a:ext cx="3990814" cy="2793655"/>
           <a:chOff x="753717" y="14287500"/>
           <a:chExt cx="3914808" cy="2717650"/>
         </a:xfrm>
@@ -4416,8 +4443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7667258" y="4280648"/>
-          <a:ext cx="4418137" cy="1250186"/>
+          <a:off x="7745699" y="4280648"/>
+          <a:ext cx="4474166" cy="1250186"/>
           <a:chOff x="6983700" y="4563232"/>
           <a:chExt cx="3121570" cy="967601"/>
         </a:xfrm>
@@ -5677,7 +5704,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>352425</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>47624</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5757,23 +5784,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5822,23 +5836,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5851,15 +5852,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>11207</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>11206</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>1135157</xdr:colOff>
+          <xdr:colOff>1133475</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>154081</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5887,23 +5888,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6180,7 +6168,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6219,44 +6207,50 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -6275,8 +6269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6284,7 +6278,7 @@
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6321,7 +6315,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
@@ -6330,22 +6324,22 @@
         <v>13</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -6359,17 +6353,17 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="D14" s="25"/>
       <c r="F14" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H14" s="25"/>
     </row>
@@ -6379,53 +6373,53 @@
       <c r="D15" s="11"/>
       <c r="F15" s="9"/>
       <c r="G15" s="33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="F16" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11"/>
       <c r="F17" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="F18" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -6459,12 +6453,12 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="F23" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
@@ -6535,12 +6529,12 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="F32" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
@@ -6553,15 +6547,15 @@
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -6572,24 +6566,24 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>27</v>
       </c>
       <c r="D37" s="25"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="11"/>
     </row>
@@ -6667,15 +6661,15 @@
         <v>13</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="D55" s="5"/>
     </row>
@@ -6686,24 +6680,24 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D59" s="11"/>
     </row>
@@ -6714,14 +6708,14 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
@@ -6789,99 +6783,99 @@
   <dimension ref="B2:N86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
     <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="36.5" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="37"/>
+        <v>134</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="38"/>
       <c r="E12" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F12" s="5">
         <v>5</v>
@@ -6890,14 +6884,14 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="37"/>
+        <v>135</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="38"/>
       <c r="L12" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M12" s="5">
         <v>5</v>
@@ -6916,100 +6910,100 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="25"/>
       <c r="I14" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D16" s="11"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="I17" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="I18" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="I19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="I20" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="I21" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
@@ -7058,33 +7052,33 @@
       <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="37"/>
+        <v>136</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="38"/>
       <c r="E29" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F29" s="5">
         <v>5</v>
@@ -7103,58 +7097,58 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
@@ -7203,30 +7197,30 @@
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="35"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="37"/>
+        <v>137</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="38"/>
       <c r="E49" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F49" s="5">
         <v>5</v>
@@ -7242,51 +7236,51 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -7330,30 +7324,30 @@
       <c r="B66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="35"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="37"/>
+        <v>138</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="38"/>
       <c r="E67" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F67" s="5">
         <v>5</v>
@@ -7369,44 +7363,44 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D69" s="25"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D70" s="11"/>
     </row>
     <row r="71" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B71" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="11"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -7503,76 +7497,76 @@
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -7584,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -7598,7 +7592,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2">
         <v>7.5</v>
@@ -7610,10 +7604,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K14" s="2">
         <v>6</v>
@@ -7624,7 +7618,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -7636,10 +7630,10 @@
         <v>14</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2">
         <v>7</v>
@@ -7650,55 +7644,55 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="I19" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
       <c r="I20" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -7716,7 +7710,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -7724,7 +7718,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="I22" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -7790,55 +7784,55 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
       <c r="I28" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="I29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="I29" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="J29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+        <v>82</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
@@ -7856,7 +7850,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7864,7 +7858,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="I31" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7930,55 +7924,55 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
       <c r="I37" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
+        <v>70</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
       <c r="I38" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
@@ -7996,7 +7990,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -8004,7 +7998,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="I40" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -8070,7 +8064,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -8099,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8117,92 +8111,92 @@
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
+        <v>88</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="F10" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G56" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="37"/>
+      <c r="G56" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="40"/>
+      <c r="I56" s="38"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="G57" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -198,18 +198,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>특정 지점을 순찰 하며 스캔을 통해</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽을 통과하여 인식 하지만 스킬을 통해</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 가능합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스캔 범위</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -489,10 +477,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스캔은 패틑롤 지점에서 사용합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>차지 시간</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -614,6 +598,22 @@
   </si>
   <si>
     <t>CPOR_FW-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 지점을 순찰 하며 EMP를 사용하며</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">범위 안에 있는 플레이어는 스킬을 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 수 없습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP은 패틑롤 지점에서 사용합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3432,6 +3432,68 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="537882" y="2073087"/>
+          <a:ext cx="5334000" cy="4885765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="87000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="8000"/>
+            <a:t>협의 중</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6207,49 +6269,49 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -6269,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6329,17 +6391,17 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -6363,7 +6425,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H14" s="25"/>
     </row>
@@ -6373,7 +6435,7 @@
       <c r="D15" s="11"/>
       <c r="F15" s="9"/>
       <c r="G15" s="33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -6387,7 +6449,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -6458,7 +6520,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="F23" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
@@ -6534,7 +6596,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="F32" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
@@ -6552,10 +6614,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -6666,10 +6728,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D55" s="5"/>
     </row>
@@ -6683,21 +6745,21 @@
         <v>16</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D59" s="11"/>
     </row>
@@ -6708,14 +6770,14 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
@@ -6782,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6811,7 +6873,7 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -6819,7 +6881,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -6829,7 +6891,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -6841,13 +6903,13 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>12</v>
@@ -6857,25 +6919,25 @@
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="5">
         <v>5</v>
@@ -6884,14 +6946,14 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>34</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M12" s="5">
         <v>5</v>
@@ -6939,12 +7001,12 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D16" s="11"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K16" s="11"/>
     </row>
@@ -7057,28 +7119,28 @@
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F29" s="5">
         <v>5</v>
@@ -7100,28 +7162,28 @@
         <v>41</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -7134,7 +7196,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -7202,25 +7264,25 @@
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F49" s="5">
         <v>5</v>
@@ -7239,21 +7301,21 @@
         <v>35</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D53" s="11"/>
     </row>
@@ -7266,7 +7328,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
@@ -7280,7 +7342,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -7329,25 +7391,25 @@
       </c>
       <c r="D66" s="36"/>
       <c r="E66" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F67" s="5">
         <v>5</v>
@@ -7366,14 +7428,14 @@
         <v>16</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D69" s="25"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D70" s="11"/>
     </row>
@@ -7386,7 +7448,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
@@ -7400,7 +7462,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -7489,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7497,76 +7559,76 @@
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -7578,10 +7640,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -7592,7 +7654,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2">
         <v>7.5</v>
@@ -7604,10 +7666,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2">
         <v>6</v>
@@ -7618,7 +7680,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -7630,10 +7692,10 @@
         <v>14</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2">
         <v>7</v>
@@ -7644,25 +7706,25 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="I19" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
@@ -7670,25 +7732,25 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="I20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
@@ -7710,7 +7772,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -7718,7 +7780,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="I22" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -7784,25 +7846,25 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="I28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
@@ -7810,25 +7872,25 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="I29" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
@@ -7850,7 +7912,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7858,7 +7920,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="I31" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7924,25 +7986,25 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="I37" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
@@ -7950,25 +8012,25 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>79</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="I38" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K38" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
@@ -7990,7 +8052,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -7998,7 +8060,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="11"/>
       <c r="I40" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -8064,7 +8126,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -8093,8 +8155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA59" sqref="AA59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8111,30 +8173,30 @@
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="38"/>
@@ -8142,61 +8204,61 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="F10" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="K13" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G56" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="38"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="고정형 몬스터 패턴" sheetId="2" r:id="rId2"/>
     <sheet name="이동형 몬스터 패턴" sheetId="3" r:id="rId3"/>
-    <sheet name="몬스터 인식" sheetId="4" r:id="rId4"/>
-    <sheet name="몬스터 로직" sheetId="5" r:id="rId5"/>
+    <sheet name="보스 몬스터" sheetId="6" r:id="rId4"/>
+    <sheet name="몬스터 인식" sheetId="4" r:id="rId5"/>
+    <sheet name="몬스터 로직" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="152">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -481,30 +482,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>지정된 장소에서 지정된 지역에 있는 플레이어에게 공격함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 인식시 물건을 던짐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위를 벗어나면 대기상태로 전환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 괴도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨로우[가명]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>수정 가능해야하는 부분, 신뮤 몬스터 추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -557,63 +534,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>CPOR_MA-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MW-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_FB-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 인식시 증원요청을 하고 정지하는 콘솔 존재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 인식시 즉시 hp감소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_FW-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 지점을 순찰 하며 EMP를 사용하며</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">범위 안에 있는 플레이어는 스킬을 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 수 없습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP은 패틑롤 지점에서 사용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CPOR_MS-04</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CPOR_MA-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPOR_MW-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPOR_FB-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저를 인식시 증원요청을 하고 정지하는 콘솔 존재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저를 인식시 즉시 hp감소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저를 인식시 유저의 방향으로 물건을 던져 공격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPOR_FW-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 이름 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CPOR_FW-02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>특정 지점을 순찰 하며 EMP를 사용하며</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">범위 안에 있는 플레이어는 스킬을 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용할 수 없습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP은 패틑롤 지점에서 사용합니다.</t>
+    <t>보스 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 몬스터에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 몬스터에 패턴에 대한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위내에 들어온 플레이어에게 장거리 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 보스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자기장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시 드론</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 로봇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사우론 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌, 우를 돌아가며 인식하는 몬스터</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1036,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,418 +2368,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2927171</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>798053</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4393193" y="12949126"/>
-          <a:ext cx="1192208" cy="1779787"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31571</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>445214</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>179683</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="직사각형 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="719028" y="14163261"/>
-          <a:ext cx="1192208" cy="577248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3271630</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>422412</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="타원 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4737652" y="12440479"/>
-          <a:ext cx="472108" cy="472108"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>적</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>173933</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>110986</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>193815</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="타원 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="861390" y="13318435"/>
-          <a:ext cx="715618" cy="815010"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>플레이어</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41412</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1731065</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="직사각형 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="728869" y="13069957"/>
-          <a:ext cx="2468218" cy="1648239"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>641073</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>160684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1217543</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="직사각형 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1328530" y="13064988"/>
-          <a:ext cx="1355035" cy="278295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>인식범위</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>563216</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>554934</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="원호 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="21005558" flipH="1">
-          <a:off x="1250673" y="12490174"/>
-          <a:ext cx="4091609" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 12040464"/>
-            <a:gd name="adj2" fmla="val 20860117"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -3494,6 +3106,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="526676" y="6992471"/>
+          <a:ext cx="5334000" cy="4101353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="87000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="8000"/>
+            <a:t>협의 중</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3727,13 +3401,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>82825</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>16562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>604630</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>132519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3783,13 +3457,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>662607</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>149084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1408042</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>115955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3840,13 +3514,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1383195</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3887,13 +3561,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>670890</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2302565</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3947,13 +3621,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>86137</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>94419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>654325</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4003,13 +3677,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69572</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>185527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>815007</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4060,13 +3734,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>394664</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4109,13 +3783,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>765313</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>193815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1825487</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>3315</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4171,13 +3845,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2012674</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2020957</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4218,13 +3892,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>568635</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>116911</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4234,7 +3908,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="791233" y="15073374"/>
+          <a:off x="791233" y="15712109"/>
           <a:ext cx="3990814" cy="2793655"/>
           <a:chOff x="753717" y="14287500"/>
           <a:chExt cx="3914808" cy="2717650"/>
@@ -4370,13 +4044,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>64603</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>14905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>810038</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>188841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4427,13 +4101,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>449977</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>142860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2149634</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>86612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4682,6 +4356,683 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125967</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="그룹 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="361950" y="3505200"/>
+          <a:ext cx="4895850" cy="2364342"/>
+          <a:chOff x="8343900" y="2390775"/>
+          <a:chExt cx="4957482" cy="2364342"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="직사각형 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12102353" y="2916962"/>
+            <a:ext cx="1199029" cy="1826559"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="직사각형 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8343900" y="4166176"/>
+            <a:ext cx="1276496" cy="588941"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="타원 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12446812" y="2390775"/>
+            <a:ext cx="478929" cy="489648"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>적</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="타원 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8486262" y="3297964"/>
+            <a:ext cx="799906" cy="832550"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>플레이어</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="직사각형 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8353741" y="3037793"/>
+            <a:ext cx="2552506" cy="1695011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8953402" y="3032824"/>
+            <a:ext cx="1439323" cy="289988"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>인식범위</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="원호 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="21005558" flipH="1">
+            <a:off x="8875545" y="2446317"/>
+            <a:ext cx="4182718" cy="1957618"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 12040464"/>
+              <a:gd name="adj2" fmla="val 20860117"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>125967</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="그룹 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="361950" y="7248525"/>
+          <a:ext cx="4895850" cy="2364342"/>
+          <a:chOff x="8343900" y="2390775"/>
+          <a:chExt cx="4957482" cy="2364342"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="직사각형 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12102353" y="2916962"/>
+            <a:ext cx="1199029" cy="1826559"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="직사각형 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8343900" y="4166176"/>
+            <a:ext cx="1276496" cy="588941"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="타원 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12446812" y="2390775"/>
+            <a:ext cx="478929" cy="489648"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>적</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="타원 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8486262" y="3297964"/>
+            <a:ext cx="799906" cy="832550"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>플레이어</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="직사각형 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8353741" y="3037793"/>
+            <a:ext cx="2552506" cy="1695011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="직사각형 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8953402" y="3032824"/>
+            <a:ext cx="1439323" cy="289988"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>인식범위</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="원호 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="21005558" flipH="1">
+            <a:off x="8875545" y="2446317"/>
+            <a:ext cx="4182718" cy="1957618"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 12040464"/>
+              <a:gd name="adj2" fmla="val 20860117"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5751,7 +6102,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6299,19 +6650,19 @@
         <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -6329,10 +6680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H72"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6340,7 +6691,7 @@
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="43.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6369,6 +6720,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -6391,17 +6750,17 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -6425,7 +6784,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H14" s="25"/>
     </row>
@@ -6435,7 +6794,7 @@
       <c r="D15" s="11"/>
       <c r="F15" s="9"/>
       <c r="G15" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -6449,7 +6808,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -6520,7 +6879,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="F23" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
@@ -6596,7 +6955,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="F32" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
@@ -6614,10 +6973,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -6715,123 +7074,6 @@
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="2:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="25"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="9"/>
-      <c r="C58" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="9"/>
-      <c r="C59" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6842,10 +7084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N86"/>
+  <dimension ref="B2:N89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6890,18 +7132,24 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
       <c r="E10" t="s">
         <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="7" t="s">
         <v>105</v>
       </c>
@@ -6909,15 +7157,15 @@
         <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="7" t="s">
         <v>105</v>
       </c>
@@ -6925,17 +7173,17 @@
         <v>100</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="5" t="s">
         <v>109</v>
       </c>
@@ -6946,12 +7194,12 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="5" t="s">
         <v>109</v>
       </c>
@@ -7001,12 +7249,12 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D16" s="11"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K16" s="11"/>
     </row>
@@ -7110,255 +7358,268 @@
       <c r="J26" s="13"/>
       <c r="K26" s="14"/>
     </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="7" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="37" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="5" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>5</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>0.5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
-        <v>21</v>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
-        <v>38</v>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="9"/>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C50" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="7" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="37" t="s">
+      <c r="G50" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="5" t="s">
+      <c r="D51" s="39"/>
+      <c r="E51" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F51" s="5">
         <v>5</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G51" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="26" t="s">
+    <row r="52" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C53" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="9"/>
-      <c r="C52" s="10" t="s">
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
-      <c r="C53" s="10" t="s">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B56" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
-        <v>48</v>
+      <c r="B57" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
+      <c r="B58" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="9"/>
+      <c r="B59" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="9"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
     </row>
@@ -7378,107 +7639,112 @@
       <c r="D63" s="11"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C69" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="7" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G69" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="37" t="s">
+      <c r="C70" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="5" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F70" s="5">
         <v>5</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G70" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="26" t="s">
+    <row r="71" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
-      <c r="C70" s="10" t="s">
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B71" s="18" t="s">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B74" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
-        <v>48</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="9"/>
+      <c r="B75" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="9"/>
+      <c r="B76" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="9"/>
+      <c r="B77" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
     </row>
@@ -7523,22 +7789,37 @@
       <c r="D85" s="11"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7549,10 +7830,259 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="30" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="39"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="23"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="52" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7711,24 +8241,24 @@
       <c r="C19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="I19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -7737,24 +8267,24 @@
       <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="I20" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -7851,24 +8381,24 @@
       <c r="C28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="I28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
@@ -7877,24 +8407,24 @@
       <c r="C29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="I29" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
@@ -7991,24 +8521,24 @@
       <c r="C37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="I37" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
@@ -8017,24 +8547,24 @@
       <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
       <c r="I38" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
@@ -8151,11 +8681,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AA59" sqref="AA59"/>
     </sheetView>
   </sheetViews>
@@ -8195,11 +8725,11 @@
       <c r="B9" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
@@ -8226,10 +8756,10 @@
         <v>89</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
@@ -8238,11 +8768,11 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="38"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="39"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">

--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="보스 몬스터" sheetId="6" r:id="rId4"/>
     <sheet name="몬스터 인식" sheetId="4" r:id="rId5"/>
     <sheet name="몬스터 로직" sheetId="5" r:id="rId6"/>
+    <sheet name="처리" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="166">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -635,6 +636,62 @@
   </si>
   <si>
     <t>좌, 우를 돌아가며 인식하는 몬스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 범위의 1.5배</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식시 바로 무기를 꺼내고 인식이 풀릴때까지 무기는 꺼낸 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위를 벗어날시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 마지막으로 목격된 장소로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식된 뒤 플레이어가 벽 뒤로 갔을 시 마지막 위치 방향 기억</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 목격된 지점으로 도착시 목격된 진행방향으로 시선이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 거리까지 거리를 좁히고 발사 준비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격은 플레이어 에게 일직선 으로 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 경로</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +807,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -770,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -923,6 +1004,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -932,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1313,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6315,6 +6633,3368 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601076" y="1585914"/>
+          <a:ext cx="1461684" cy="1376361"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="1704975"/>
+          <a:ext cx="1695450" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="이등변 삼각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4424363" y="-519113"/>
+          <a:ext cx="2628900" cy="5648325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65856</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28392</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="그룹 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8614544" y="772369"/>
+          <a:ext cx="267120" cy="1232461"/>
+          <a:chOff x="7983454" y="421105"/>
+          <a:chExt cx="286753" cy="1244766"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7983454" y="421105"/>
+            <a:ext cx="286753" cy="918411"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 27156"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7983454" y="1398169"/>
+            <a:ext cx="286753" cy="267702"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 29776"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595594</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9481859" y="5856476"/>
+          <a:ext cx="1457202" cy="1399893"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>341779</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>665629</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1025338" y="5978899"/>
+          <a:ext cx="1690967" cy="1169334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350744</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512669</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>202827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="이등변 삼각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5247434" y="3716152"/>
+          <a:ext cx="2672603" cy="5630396"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340098</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63877</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="이등변 삼각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3411350" y="-1660987"/>
+          <a:ext cx="2672603" cy="8105774"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="이등변 삼각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3825968" y="2171425"/>
+          <a:ext cx="2672603" cy="8935009"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595594</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="타원 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9739594" y="5946123"/>
+          <a:ext cx="1457202" cy="1399893"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>341779</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>665629</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1025338" y="6068546"/>
+          <a:ext cx="1948703" cy="1169334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350744</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512669</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>202827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="이등변 삼각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5505169" y="3805799"/>
+          <a:ext cx="2672603" cy="5630396"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>7849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="이등변 삼각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3825968" y="2171425"/>
+          <a:ext cx="2672603" cy="8935009"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>145678</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="모서리가 둥근 직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9289678" y="11586884"/>
+          <a:ext cx="1692088" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>무기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23662</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="714225" y="14172361"/>
+          <a:ext cx="10320769" cy="2213085"/>
+          <a:chOff x="-1305400" y="13890813"/>
+          <a:chExt cx="12502196" cy="2690536"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="타원 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9739594" y="14552240"/>
+            <a:ext cx="1457202" cy="1399894"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>몬스터</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="직사각형 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1305400" y="14674664"/>
+            <a:ext cx="1948702" cy="1169334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>플레이어</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="이등변 삼각형 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5505170" y="12411916"/>
+            <a:ext cx="2672602" cy="5630396"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="이등변 삼각형 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3825968" y="10777543"/>
+            <a:ext cx="2672603" cy="8935009"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9289678" y="15889943"/>
+            <a:ext cx="1692088" cy="605118"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>무기</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>250121</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>414620</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="그룹 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14442371" y="14172361"/>
+          <a:ext cx="8451249" cy="2213085"/>
+          <a:chOff x="694765" y="13890813"/>
+          <a:chExt cx="10502031" cy="2690536"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="타원 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9739594" y="14552240"/>
+            <a:ext cx="1457202" cy="1399894"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>몬스터</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="직사각형 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914093" y="14674664"/>
+            <a:ext cx="1948702" cy="1169334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>플레이어</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="이등변 삼각형 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5505170" y="12411916"/>
+            <a:ext cx="2672602" cy="5630396"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="이등변 삼각형 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3825968" y="10777543"/>
+            <a:ext cx="2672603" cy="8935009"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="모서리가 둥근 직사각형 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9289678" y="15889943"/>
+            <a:ext cx="1692088" cy="605118"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>무기</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>572750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>199160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>20654</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="그룹 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1263313" y="18439535"/>
+          <a:ext cx="9738063" cy="2821869"/>
+          <a:chOff x="-592468" y="13152829"/>
+          <a:chExt cx="11789264" cy="3428520"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="타원 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9739594" y="14552240"/>
+            <a:ext cx="1457202" cy="1399894"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>몬스터</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="직사각형 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-592468" y="13152829"/>
+            <a:ext cx="1948703" cy="1169334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>플레이어</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="이등변 삼각형 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5505170" y="12411916"/>
+            <a:ext cx="2672602" cy="5630396"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="이등변 삼각형 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3825968" y="10777543"/>
+            <a:ext cx="2672603" cy="8935009"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="모서리가 둥근 직사각형 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9289678" y="15889943"/>
+            <a:ext cx="1692088" cy="605118"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>무기</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2868706" y="17873382"/>
+          <a:ext cx="593912" cy="2185147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>벽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511219</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>203252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="그룹 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9750469" y="18443627"/>
+          <a:ext cx="579664" cy="791946"/>
+          <a:chOff x="10062495" y="17709545"/>
+          <a:chExt cx="572273" cy="775524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="43" name="그룹 42"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10062495" y="17709545"/>
+            <a:ext cx="572273" cy="699016"/>
+            <a:chOff x="11407588" y="17346706"/>
+            <a:chExt cx="2214281" cy="2729750"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="막힌 원호 39"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11407588" y="17346706"/>
+              <a:ext cx="1591235" cy="1591235"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 10800000"/>
+                <a:gd name="adj2" fmla="val 4539844"/>
+                <a:gd name="adj3" fmla="val 17291"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="막힌 원호 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18577775">
+              <a:off x="12030634" y="18485221"/>
+              <a:ext cx="1591235" cy="1591235"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 11727469"/>
+                <a:gd name="adj2" fmla="val 17078901"/>
+                <a:gd name="adj3" fmla="val 17974"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="타원 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10217446" y="18354076"/>
+            <a:ext cx="133291" cy="130993"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>ㅋ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>572750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>199160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>20654</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="그룹 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13264813" y="18439535"/>
+          <a:ext cx="9595188" cy="2821869"/>
+          <a:chOff x="-592468" y="13152829"/>
+          <a:chExt cx="11789264" cy="3428520"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="타원 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9739594" y="14552240"/>
+            <a:ext cx="1457202" cy="1399894"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>몬스터</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="직사각형 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-592468" y="13152829"/>
+            <a:ext cx="1948703" cy="1169334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>플레이어</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="이등변 삼각형 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5505170" y="12411916"/>
+            <a:ext cx="2672602" cy="5630396"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="이등변 삼각형 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3825968" y="10777543"/>
+            <a:ext cx="2672603" cy="8935009"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="모서리가 둥근 직사각형 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9289678" y="15889943"/>
+            <a:ext cx="1692088" cy="605118"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>무기</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14702118" y="17884588"/>
+          <a:ext cx="593912" cy="2185147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>벽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>511219</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>203252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>400320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="그룹 52"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21609094" y="18443627"/>
+          <a:ext cx="579664" cy="791946"/>
+          <a:chOff x="10062495" y="17709545"/>
+          <a:chExt cx="572273" cy="775524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="그룹 53"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10062495" y="17709545"/>
+            <a:ext cx="572273" cy="699016"/>
+            <a:chOff x="11407588" y="17346706"/>
+            <a:chExt cx="2214281" cy="2729750"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="막힌 원호 55"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11407588" y="17346706"/>
+              <a:ext cx="1591235" cy="1591235"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 10800000"/>
+                <a:gd name="adj2" fmla="val 4539844"/>
+                <a:gd name="adj3" fmla="val 17291"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="막힌 원호 56"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18577775">
+              <a:off x="12030634" y="18485221"/>
+              <a:ext cx="1591235" cy="1591235"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 11727469"/>
+                <a:gd name="adj2" fmla="val 17078901"/>
+                <a:gd name="adj3" fmla="val 17974"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="타원 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10217446" y="18354076"/>
+            <a:ext cx="133291" cy="130993"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>ㅋ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>205916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>501591</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="직선 화살표 연결선 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14500412" y="20017916"/>
+          <a:ext cx="6765679" cy="219908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281609</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="위쪽 화살표 설명선 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847021" y="19199085"/>
+          <a:ext cx="753718" cy="1316935"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>마지막 위치</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>방향</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>199029</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>143657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="타원 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29945604" y="19792713"/>
+          <a:ext cx="1163047" cy="1124969"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>75933</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>77597</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="그룹 74"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="29726695" y="18431442"/>
+          <a:ext cx="2239769" cy="1390917"/>
+          <a:chOff x="23250464" y="17565736"/>
+          <a:chExt cx="7152829" cy="2162141"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="이등변 삼각형 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="27082514" y="16392686"/>
+            <a:ext cx="2147730" cy="4493829"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="이등변 삼각형 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="25742280" y="15088330"/>
+            <a:ext cx="2147731" cy="7131363"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>376828</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>156862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>177307</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>40530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="모서리가 둥근 직사각형 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="29005484" y="19686606"/>
+          <a:ext cx="1350518" cy="486279"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>무기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>42022</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="직사각형 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31160197" y="17673917"/>
+          <a:ext cx="596154" cy="2154331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>벽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>184647</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>67180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>73749</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1876</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="그룹 68"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="28878710" y="19379118"/>
+          <a:ext cx="579664" cy="791946"/>
+          <a:chOff x="10062495" y="17709545"/>
+          <a:chExt cx="572273" cy="775524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="70" name="그룹 69"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10062495" y="17709545"/>
+            <a:ext cx="572273" cy="699016"/>
+            <a:chOff x="11407588" y="17346706"/>
+            <a:chExt cx="2214281" cy="2729750"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="막힌 원호 71"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11407588" y="17346706"/>
+              <a:ext cx="1591235" cy="1591235"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 10800000"/>
+                <a:gd name="adj2" fmla="val 4539844"/>
+                <a:gd name="adj3" fmla="val 17291"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="막힌 원호 72"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18577775">
+              <a:off x="12030634" y="18485221"/>
+              <a:ext cx="1591235" cy="1591235"/>
+            </a:xfrm>
+            <a:prstGeom prst="blockArc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 11727469"/>
+                <a:gd name="adj2" fmla="val 17078901"/>
+                <a:gd name="adj3" fmla="val 17974"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="타원 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10217446" y="18354076"/>
+            <a:ext cx="133291" cy="130993"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>ㅋ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>595594</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="타원 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9698773" y="9864179"/>
+          <a:ext cx="1447597" cy="1338261"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341779</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>665629</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="직사각형 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022136" y="9977799"/>
+          <a:ext cx="1943100" cy="1125310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>350744</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>512669</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>202827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="이등변 삼각형 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5529983" y="7710248"/>
+          <a:ext cx="2566947" cy="5604783"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>7849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="이등변 삼각형 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3861186" y="6077476"/>
+          <a:ext cx="2558143" cy="8897390"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>145678</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="모서리가 둥근 직사각형 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248857" y="11149054"/>
+          <a:ext cx="1685684" cy="578705"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>무기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>665629</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>164667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>595594</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171811</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="직선 연결선 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14531308" y="10533310"/>
+          <a:ext cx="6733536" cy="7144"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>152399</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>474268</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6156" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6156"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -6683,7 +10363,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7086,8 +10766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8685,8 +12365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA59" sqref="AA59"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8904,4 +12584,3354 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E46" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="52"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="52"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="52"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="52"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B8" s="53"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="52"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B9" s="53"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="52"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="53"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="52"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B11" s="53"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="52"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="53"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="52"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="53"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="52"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="53"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="52"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="52"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="52"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B17" s="53"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="52"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B18" s="53"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="52"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="52"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B20" s="53"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="52"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B21" s="53"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="52"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="52"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B23" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="52"/>
+    </row>
+    <row r="24" spans="2:33" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="52"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="52"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="52"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B27" s="53"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="52"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B28" s="53"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="52"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="52"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="52"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B31" s="53"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="52"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="52"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="52"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="52"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B35" s="53"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="52"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="52"/>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B37" s="53"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="52"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B38" s="53"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="52"/>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B39" s="54"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="52"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B40" s="53"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="52"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B41" s="53"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="52"/>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B42" s="53"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="52"/>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B43" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="52"/>
+    </row>
+    <row r="44" spans="2:33" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="T44" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="U44" s="10"/>
+      <c r="V44" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="57"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B45" s="53"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="52"/>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B46" s="53"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="52"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="52"/>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B48" s="53"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="52"/>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B49" s="53"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="52"/>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B50" s="53"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="52"/>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B51" s="53"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="52"/>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B52" s="53"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="52"/>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="52"/>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B54" s="53"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="52"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B55" s="53"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="52"/>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B56" s="53"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="52"/>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B57" s="53"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="52"/>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B58" s="53"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="52"/>
+    </row>
+    <row r="59" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="62"/>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B63" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="S63" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="17"/>
+    </row>
+    <row r="64" spans="2:33" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B64" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="25"/>
+      <c r="S64" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="T64" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="25"/>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="11"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="11"/>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="11"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="11"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="11"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="11"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="11"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="11"/>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="11"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="11"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="11"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="11"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="11"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="11"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="11"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="11"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="11"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="11"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="11"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="11"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="11"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="11"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="11"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="11"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="11"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="11"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="11"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
+      <c r="AG78" s="11"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="14"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="14"/>
+    </row>
+    <row r="83" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B83" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="S83" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="17"/>
+      <c r="AJ83" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK83" s="16"/>
+      <c r="AL83" s="16"/>
+      <c r="AM83" s="16"/>
+      <c r="AN83" s="16"/>
+      <c r="AO83" s="17"/>
+    </row>
+    <row r="84" spans="2:50" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B84" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="25"/>
+      <c r="S84" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="T84" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="25"/>
+      <c r="AJ84" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK84" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL84" s="10"/>
+      <c r="AM84" s="10"/>
+      <c r="AN84" s="10"/>
+      <c r="AO84" s="10"/>
+      <c r="AP84" s="24"/>
+      <c r="AQ84" s="24"/>
+      <c r="AR84" s="24"/>
+      <c r="AS84" s="24"/>
+      <c r="AT84" s="24"/>
+      <c r="AU84" s="24"/>
+      <c r="AV84" s="24"/>
+      <c r="AW84" s="24"/>
+      <c r="AX84" s="25"/>
+    </row>
+    <row r="85" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="11"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="11"/>
+      <c r="AJ85" s="9"/>
+      <c r="AK85" s="10"/>
+      <c r="AL85" s="10"/>
+      <c r="AM85" s="10"/>
+      <c r="AN85" s="10"/>
+      <c r="AO85" s="10"/>
+      <c r="AP85" s="10"/>
+      <c r="AQ85" s="10"/>
+      <c r="AR85" s="10"/>
+      <c r="AS85" s="10"/>
+      <c r="AT85" s="10"/>
+      <c r="AU85" s="10"/>
+      <c r="AV85" s="10"/>
+      <c r="AW85" s="10"/>
+      <c r="AX85" s="11"/>
+    </row>
+    <row r="86" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="11"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="11"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="10"/>
+      <c r="AL86" s="10"/>
+      <c r="AM86" s="10"/>
+      <c r="AN86" s="10"/>
+      <c r="AO86" s="10"/>
+      <c r="AP86" s="10"/>
+      <c r="AQ86" s="10"/>
+      <c r="AR86" s="10"/>
+      <c r="AS86" s="10"/>
+      <c r="AT86" s="10"/>
+      <c r="AU86" s="10"/>
+      <c r="AV86" s="10"/>
+      <c r="AW86" s="10"/>
+      <c r="AX86" s="11"/>
+    </row>
+    <row r="87" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="11"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="11"/>
+      <c r="AJ87" s="9"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
+      <c r="AO87" s="10"/>
+      <c r="AP87" s="10"/>
+      <c r="AQ87" s="10"/>
+      <c r="AR87" s="10"/>
+      <c r="AS87" s="10"/>
+      <c r="AT87" s="10"/>
+      <c r="AU87" s="10"/>
+      <c r="AV87" s="10"/>
+      <c r="AW87" s="10"/>
+      <c r="AX87" s="11"/>
+    </row>
+    <row r="88" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="11"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="11"/>
+      <c r="AJ88" s="9"/>
+      <c r="AK88" s="10"/>
+      <c r="AL88" s="10"/>
+      <c r="AM88" s="10"/>
+      <c r="AN88" s="10"/>
+      <c r="AO88" s="10"/>
+      <c r="AP88" s="10"/>
+      <c r="AQ88" s="10"/>
+      <c r="AR88" s="10"/>
+      <c r="AS88" s="10"/>
+      <c r="AT88" s="10"/>
+      <c r="AU88" s="10"/>
+      <c r="AV88" s="10"/>
+      <c r="AW88" s="10"/>
+      <c r="AX88" s="11"/>
+    </row>
+    <row r="89" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="11"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+      <c r="AB89" s="10"/>
+      <c r="AC89" s="10"/>
+      <c r="AD89" s="10"/>
+      <c r="AE89" s="10"/>
+      <c r="AF89" s="10"/>
+      <c r="AG89" s="11"/>
+      <c r="AJ89" s="9"/>
+      <c r="AK89" s="10"/>
+      <c r="AL89" s="10"/>
+      <c r="AM89" s="10"/>
+      <c r="AN89" s="10"/>
+      <c r="AO89" s="10"/>
+      <c r="AP89" s="10"/>
+      <c r="AQ89" s="10"/>
+      <c r="AR89" s="10"/>
+      <c r="AS89" s="10"/>
+      <c r="AT89" s="10"/>
+      <c r="AU89" s="10"/>
+      <c r="AV89" s="10"/>
+      <c r="AW89" s="10"/>
+      <c r="AX89" s="11"/>
+    </row>
+    <row r="90" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="11"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="10"/>
+      <c r="AG90" s="11"/>
+      <c r="AJ90" s="9"/>
+      <c r="AK90" s="10"/>
+      <c r="AL90" s="10"/>
+      <c r="AM90" s="10"/>
+      <c r="AN90" s="10"/>
+      <c r="AO90" s="10"/>
+      <c r="AP90" s="10"/>
+      <c r="AQ90" s="10"/>
+      <c r="AR90" s="10"/>
+      <c r="AS90" s="10"/>
+      <c r="AT90" s="10"/>
+      <c r="AU90" s="10"/>
+      <c r="AV90" s="10"/>
+      <c r="AW90" s="10"/>
+      <c r="AX90" s="11"/>
+    </row>
+    <row r="91" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="11"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="10"/>
+      <c r="AF91" s="10"/>
+      <c r="AG91" s="11"/>
+      <c r="AJ91" s="9"/>
+      <c r="AK91" s="10"/>
+      <c r="AL91" s="10"/>
+      <c r="AM91" s="10"/>
+      <c r="AN91" s="10"/>
+      <c r="AO91" s="10"/>
+      <c r="AP91" s="10"/>
+      <c r="AQ91" s="10"/>
+      <c r="AR91" s="10"/>
+      <c r="AS91" s="10"/>
+      <c r="AT91" s="10"/>
+      <c r="AU91" s="10"/>
+      <c r="AV91" s="10"/>
+      <c r="AW91" s="10"/>
+      <c r="AX91" s="11"/>
+    </row>
+    <row r="92" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="11"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="10"/>
+      <c r="AF92" s="10"/>
+      <c r="AG92" s="11"/>
+      <c r="AJ92" s="9"/>
+      <c r="AK92" s="10"/>
+      <c r="AL92" s="10"/>
+      <c r="AM92" s="10"/>
+      <c r="AN92" s="10"/>
+      <c r="AO92" s="10"/>
+      <c r="AP92" s="10"/>
+      <c r="AQ92" s="10"/>
+      <c r="AR92" s="10"/>
+      <c r="AS92" s="10"/>
+      <c r="AT92" s="10"/>
+      <c r="AU92" s="10"/>
+      <c r="AV92" s="10"/>
+      <c r="AW92" s="10"/>
+      <c r="AX92" s="11"/>
+    </row>
+    <row r="93" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="11"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10"/>
+      <c r="AB93" s="10"/>
+      <c r="AC93" s="10"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="10"/>
+      <c r="AF93" s="10"/>
+      <c r="AG93" s="11"/>
+      <c r="AJ93" s="9"/>
+      <c r="AK93" s="10"/>
+      <c r="AL93" s="10"/>
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
+      <c r="AO93" s="10"/>
+      <c r="AP93" s="10"/>
+      <c r="AQ93" s="10"/>
+      <c r="AR93" s="10"/>
+      <c r="AS93" s="10"/>
+      <c r="AT93" s="10"/>
+      <c r="AU93" s="10"/>
+      <c r="AV93" s="10"/>
+      <c r="AW93" s="10"/>
+      <c r="AX93" s="11"/>
+    </row>
+    <row r="94" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="11"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="10"/>
+      <c r="AF94" s="10"/>
+      <c r="AG94" s="11"/>
+      <c r="AJ94" s="9"/>
+      <c r="AK94" s="10"/>
+      <c r="AL94" s="10"/>
+      <c r="AM94" s="10"/>
+      <c r="AN94" s="10"/>
+      <c r="AO94" s="10"/>
+      <c r="AP94" s="10"/>
+      <c r="AQ94" s="10"/>
+      <c r="AR94" s="10"/>
+      <c r="AS94" s="10"/>
+      <c r="AT94" s="10"/>
+      <c r="AU94" s="10"/>
+      <c r="AV94" s="10"/>
+      <c r="AW94" s="10"/>
+      <c r="AX94" s="11"/>
+    </row>
+    <row r="95" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="11"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
+      <c r="AE95" s="10"/>
+      <c r="AF95" s="10"/>
+      <c r="AG95" s="11"/>
+      <c r="AJ95" s="9"/>
+      <c r="AK95" s="10"/>
+      <c r="AL95" s="10"/>
+      <c r="AM95" s="10"/>
+      <c r="AN95" s="10"/>
+      <c r="AO95" s="10"/>
+      <c r="AP95" s="10"/>
+      <c r="AQ95" s="10"/>
+      <c r="AR95" s="10"/>
+      <c r="AS95" s="10"/>
+      <c r="AT95" s="10"/>
+      <c r="AU95" s="10"/>
+      <c r="AV95" s="10"/>
+      <c r="AW95" s="10"/>
+      <c r="AX95" s="11"/>
+    </row>
+    <row r="96" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="11"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="10"/>
+      <c r="AC96" s="10"/>
+      <c r="AD96" s="10"/>
+      <c r="AE96" s="10"/>
+      <c r="AF96" s="10"/>
+      <c r="AG96" s="11"/>
+      <c r="AJ96" s="9"/>
+      <c r="AK96" s="10"/>
+      <c r="AL96" s="10"/>
+      <c r="AM96" s="10"/>
+      <c r="AN96" s="10"/>
+      <c r="AO96" s="10"/>
+      <c r="AP96" s="10"/>
+      <c r="AQ96" s="10"/>
+      <c r="AR96" s="10"/>
+      <c r="AS96" s="10"/>
+      <c r="AT96" s="10"/>
+      <c r="AU96" s="10"/>
+      <c r="AV96" s="10"/>
+      <c r="AW96" s="10"/>
+      <c r="AX96" s="11"/>
+    </row>
+    <row r="97" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="11"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
+      <c r="AG97" s="11"/>
+      <c r="AJ97" s="9"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="10"/>
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="10"/>
+      <c r="AO97" s="10"/>
+      <c r="AP97" s="10"/>
+      <c r="AQ97" s="10"/>
+      <c r="AR97" s="10"/>
+      <c r="AS97" s="10"/>
+      <c r="AT97" s="10"/>
+      <c r="AU97" s="10"/>
+      <c r="AV97" s="10"/>
+      <c r="AW97" s="10"/>
+      <c r="AX97" s="11"/>
+    </row>
+    <row r="98" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="11"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="11"/>
+      <c r="AJ98" s="9"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+      <c r="AQ98" s="10"/>
+      <c r="AR98" s="10"/>
+      <c r="AS98" s="10"/>
+      <c r="AT98" s="10"/>
+      <c r="AU98" s="10"/>
+      <c r="AV98" s="10"/>
+      <c r="AW98" s="10"/>
+      <c r="AX98" s="11"/>
+    </row>
+    <row r="99" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="14"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="13"/>
+      <c r="AA99" s="13"/>
+      <c r="AB99" s="13"/>
+      <c r="AC99" s="13"/>
+      <c r="AD99" s="13"/>
+      <c r="AE99" s="13"/>
+      <c r="AF99" s="13"/>
+      <c r="AG99" s="14"/>
+      <c r="AJ99" s="12"/>
+      <c r="AK99" s="13"/>
+      <c r="AL99" s="13"/>
+      <c r="AM99" s="13"/>
+      <c r="AN99" s="13"/>
+      <c r="AO99" s="13"/>
+      <c r="AP99" s="13"/>
+      <c r="AQ99" s="13"/>
+      <c r="AR99" s="13"/>
+      <c r="AS99" s="13"/>
+      <c r="AT99" s="13"/>
+      <c r="AU99" s="13"/>
+      <c r="AV99" s="13"/>
+      <c r="AW99" s="13"/>
+      <c r="AX99" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="6156" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="6156" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/Document/몬스터 시스템 문서_강동민.xlsx
+++ b/Document/몬스터 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="168">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -692,6 +692,14 @@
   </si>
   <si>
     <t>공격 경로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 인식처리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,24 +1304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1366,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6428,58 +6439,6 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>111</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5124" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5124"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -6623,6 +6582,71 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>7622</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>155864</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5129" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5129"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6829,8 +6853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8614544" y="772369"/>
-          <a:ext cx="267120" cy="1232461"/>
+          <a:off x="8488677" y="755360"/>
+          <a:ext cx="267120" cy="1178032"/>
           <a:chOff x="7983454" y="421105"/>
           <a:chExt cx="286753" cy="1244766"/>
         </a:xfrm>
@@ -7527,8 +7551,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="714225" y="14172361"/>
-          <a:ext cx="10320769" cy="2213085"/>
+          <a:off x="704019" y="13563441"/>
+          <a:ext cx="10174493" cy="2111031"/>
           <a:chOff x="-1305400" y="13890813"/>
           <a:chExt cx="12502196" cy="2690536"/>
         </a:xfrm>
@@ -7774,8 +7798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14442371" y="14172361"/>
-          <a:ext cx="8451249" cy="2213085"/>
+          <a:off x="14251871" y="13563441"/>
+          <a:ext cx="8328785" cy="2111031"/>
           <a:chOff x="694765" y="13890813"/>
           <a:chExt cx="10502031" cy="2690536"/>
         </a:xfrm>
@@ -8021,8 +8045,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1263313" y="18439535"/>
-          <a:ext cx="9738063" cy="2821869"/>
+          <a:off x="1253107" y="17643517"/>
+          <a:ext cx="9591787" cy="2678994"/>
           <a:chOff x="-592468" y="13152829"/>
           <a:chExt cx="11789264" cy="3428520"/>
         </a:xfrm>
@@ -8325,8 +8349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9750469" y="18443627"/>
-          <a:ext cx="579664" cy="791946"/>
+          <a:off x="9614398" y="17647609"/>
+          <a:ext cx="569458" cy="751125"/>
           <a:chOff x="10062495" y="17709545"/>
           <a:chExt cx="572273" cy="775524"/>
         </a:xfrm>
@@ -8513,8 +8537,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13264813" y="18439535"/>
-          <a:ext cx="9595188" cy="2821869"/>
+          <a:off x="13077714" y="17643517"/>
+          <a:ext cx="9469323" cy="2678994"/>
           <a:chOff x="-592468" y="13152829"/>
           <a:chExt cx="11789264" cy="3428520"/>
         </a:xfrm>
@@ -8817,8 +8841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21609094" y="18443627"/>
-          <a:ext cx="579664" cy="791946"/>
+          <a:off x="21316540" y="17647609"/>
+          <a:ext cx="569459" cy="751125"/>
           <a:chOff x="10062495" y="17709545"/>
           <a:chExt cx="572273" cy="775524"/>
         </a:xfrm>
@@ -9179,8 +9203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="29726695" y="18431442"/>
-          <a:ext cx="2239769" cy="1390917"/>
+          <a:off x="29338891" y="17601405"/>
+          <a:ext cx="2144519" cy="1370507"/>
           <a:chOff x="23250464" y="17565736"/>
           <a:chExt cx="7152829" cy="2162141"/>
         </a:xfrm>
@@ -9414,8 +9438,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28878710" y="19379118"/>
-          <a:ext cx="579664" cy="791946"/>
+          <a:off x="28473897" y="18532073"/>
+          <a:ext cx="569459" cy="751124"/>
           <a:chOff x="10062495" y="17709545"/>
           <a:chExt cx="572273" cy="775524"/>
         </a:xfrm>
@@ -9932,13 +9956,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>152399</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>32</xdr:col>
-          <xdr:colOff>474268</xdr:colOff>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -9968,23 +9992,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -10258,10 +10269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10347,10 +10358,58 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>167</v>
+      </c>
       <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10363,7 +10422,7 @@
   <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10766,7 +10825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -10826,10 +10885,10 @@
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="7" t="s">
         <v>105</v>
       </c>
@@ -10842,10 +10901,10 @@
       <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="7" t="s">
         <v>105</v>
       </c>
@@ -10860,10 +10919,10 @@
       <c r="B12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="5" t="s">
         <v>109</v>
       </c>
@@ -10876,10 +10935,10 @@
       <c r="I12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="5" t="s">
         <v>109</v>
       </c>
@@ -11055,10 +11114,10 @@
       <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="7" t="s">
         <v>105</v>
       </c>
@@ -11076,10 +11135,10 @@
       <c r="B30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="5" t="s">
         <v>109</v>
       </c>
@@ -11210,10 +11269,10 @@
       <c r="B50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="37"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="7" t="s">
         <v>105</v>
       </c>
@@ -11228,10 +11287,10 @@
       <c r="B51" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="39"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="5" t="s">
         <v>109</v>
       </c>
@@ -11347,10 +11406,10 @@
       <c r="B69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="7" t="s">
         <v>105</v>
       </c>
@@ -11365,10 +11424,10 @@
       <c r="B70" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="61"/>
       <c r="E70" s="5" t="s">
         <v>109</v>
       </c>
@@ -11571,19 +11630,19 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
@@ -11659,19 +11718,19 @@
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
@@ -11921,24 +11980,24 @@
       <c r="C19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
       <c r="I19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -11947,24 +12006,24 @@
       <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="I20" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
@@ -12061,24 +12120,24 @@
       <c r="C28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
       <c r="I28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
@@ -12087,24 +12146,24 @@
       <c r="C29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
       <c r="I29" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
@@ -12201,24 +12260,24 @@
       <c r="C37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
       <c r="I37" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J37" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
@@ -12227,24 +12286,24 @@
       <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
       <c r="I38" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
@@ -12365,8 +12424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12405,11 +12464,11 @@
       <c r="B9" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
@@ -12448,11 +12507,11 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="39"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
@@ -12484,33 +12543,8 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5124" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="5126" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5124" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5126" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -12529,13 +12563,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5126" r:id="rId6"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="5126" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5127" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId9">
+        <oleObject progId="Visio.Drawing.11" shapeId="5127" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -12554,13 +12588,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5127" r:id="rId8"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="5127" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="5128" r:id="rId10">
-          <objectPr defaultSize="0" r:id="rId11">
+        <oleObject progId="Visio.Drawing.11" shapeId="5128" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -12579,7 +12613,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="5128" r:id="rId10"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="5128" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="5129" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="5129" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -12590,8 +12649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E46" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12607,46 +12666,46 @@
     </row>
     <row r="2" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="50"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="44"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="24"/>
@@ -12678,10 +12737,10 @@
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="52"/>
+      <c r="AG4" s="46"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -12712,10 +12771,10 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="52"/>
+      <c r="AG5" s="46"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -12746,10 +12805,10 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="52"/>
+      <c r="AG6" s="46"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -12780,10 +12839,10 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="52"/>
+      <c r="AG7" s="46"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="53"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -12814,10 +12873,10 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-      <c r="AG8" s="52"/>
+      <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -12848,10 +12907,10 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="52"/>
+      <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -12882,10 +12941,10 @@
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="52"/>
+      <c r="AG10" s="46"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="53"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -12916,10 +12975,10 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="52"/>
+      <c r="AG11" s="46"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -12950,10 +13009,10 @@
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="52"/>
+      <c r="AG12" s="46"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B13" s="53"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -12984,10 +13043,10 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="52"/>
+      <c r="AG13" s="46"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -13018,10 +13077,10 @@
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="52"/>
+      <c r="AG14" s="46"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -13052,10 +13111,10 @@
       <c r="AD15" s="10"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="52"/>
+      <c r="AG15" s="46"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="53"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -13086,10 +13145,10 @@
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="52"/>
+      <c r="AG16" s="46"/>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -13120,10 +13179,10 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="52"/>
+      <c r="AG17" s="46"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B18" s="53"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -13154,10 +13213,10 @@
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
-      <c r="AG18" s="52"/>
+      <c r="AG18" s="46"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B19" s="54"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -13188,10 +13247,10 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="52"/>
+      <c r="AG19" s="46"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -13222,10 +13281,10 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="52"/>
+      <c r="AG20" s="46"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B21" s="53"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -13256,10 +13315,10 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="52"/>
+      <c r="AG21" s="46"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -13290,10 +13349,10 @@
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="52"/>
+      <c r="AG22" s="46"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="49" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -13328,13 +13387,13 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="52"/>
+      <c r="AG23" s="46"/>
     </row>
     <row r="24" spans="2:33" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="24"/>
@@ -13366,10 +13425,10 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="52"/>
+      <c r="AG24" s="46"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -13400,10 +13459,10 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="52"/>
+      <c r="AG25" s="46"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -13434,10 +13493,10 @@
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
-      <c r="AG26" s="52"/>
+      <c r="AG26" s="46"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -13468,10 +13527,10 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
-      <c r="AG27" s="52"/>
+      <c r="AG27" s="46"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="53"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -13502,10 +13561,10 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
-      <c r="AG28" s="52"/>
+      <c r="AG28" s="46"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B29" s="53"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -13536,10 +13595,10 @@
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
-      <c r="AG29" s="52"/>
+      <c r="AG29" s="46"/>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -13570,10 +13629,10 @@
       <c r="AD30" s="10"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
-      <c r="AG30" s="52"/>
+      <c r="AG30" s="46"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B31" s="53"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -13604,10 +13663,10 @@
       <c r="AD31" s="10"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
-      <c r="AG31" s="52"/>
+      <c r="AG31" s="46"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -13638,10 +13697,10 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
-      <c r="AG32" s="52"/>
+      <c r="AG32" s="46"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -13672,10 +13731,10 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
-      <c r="AG33" s="52"/>
+      <c r="AG33" s="46"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -13706,10 +13765,10 @@
       <c r="AD34" s="10"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
-      <c r="AG34" s="52"/>
+      <c r="AG34" s="46"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B35" s="53"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -13740,10 +13799,10 @@
       <c r="AD35" s="10"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="52"/>
+      <c r="AG35" s="46"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="53"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -13774,10 +13833,10 @@
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-      <c r="AG36" s="52"/>
+      <c r="AG36" s="46"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="53"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -13808,10 +13867,10 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-      <c r="AG37" s="52"/>
+      <c r="AG37" s="46"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B38" s="53"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -13842,10 +13901,10 @@
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-      <c r="AG38" s="52"/>
+      <c r="AG38" s="46"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B39" s="54"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -13876,10 +13935,10 @@
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-      <c r="AG39" s="52"/>
+      <c r="AG39" s="46"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="53"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -13910,10 +13969,10 @@
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
-      <c r="AG40" s="52"/>
+      <c r="AG40" s="46"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B41" s="53"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -13944,10 +14003,10 @@
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
-      <c r="AG41" s="52"/>
+      <c r="AG41" s="46"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B42" s="53"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -13978,10 +14037,10 @@
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
-      <c r="AG42" s="52"/>
+      <c r="AG42" s="46"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="49" t="s">
         <v>158</v>
       </c>
       <c r="C43" s="16"/>
@@ -14016,13 +14075,13 @@
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
-      <c r="AG43" s="52"/>
+      <c r="AG43" s="46"/>
     </row>
     <row r="44" spans="2:33" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="38" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="10"/>
@@ -14040,14 +14099,14 @@
       <c r="P44" s="25"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="43" t="s">
+      <c r="S44" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="T44" s="44" t="s">
+      <c r="T44" s="38" t="s">
         <v>155</v>
       </c>
       <c r="U44" s="10"/>
-      <c r="V44" s="45" t="s">
+      <c r="V44" s="39" t="s">
         <v>165</v>
       </c>
       <c r="W44" s="10"/>
@@ -14060,10 +14119,10 @@
       <c r="AD44" s="24"/>
       <c r="AE44" s="24"/>
       <c r="AF44" s="24"/>
-      <c r="AG44" s="57"/>
+      <c r="AG44" s="51"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B45" s="53"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -14094,10 +14153,10 @@
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
-      <c r="AG45" s="52"/>
+      <c r="AG45" s="46"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B46" s="53"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -14128,10 +14187,10 @@
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
-      <c r="AG46" s="52"/>
+      <c r="AG46" s="46"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B47" s="53"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -14162,10 +14221,10 @@
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
-      <c r="AG47" s="52"/>
+      <c r="AG47" s="46"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B48" s="53"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -14196,10 +14255,10 @@
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
-      <c r="AG48" s="52"/>
+      <c r="AG48" s="46"/>
     </row>
     <row r="49" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -14230,10 +14289,10 @@
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
-      <c r="AG49" s="52"/>
+      <c r="AG49" s="46"/>
     </row>
     <row r="50" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B50" s="53"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -14264,10 +14323,10 @@
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
-      <c r="AG50" s="52"/>
+      <c r="AG50" s="46"/>
     </row>
     <row r="51" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B51" s="53"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -14298,10 +14357,10 @@
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="10"/>
-      <c r="AG51" s="52"/>
+      <c r="AG51" s="46"/>
     </row>
     <row r="52" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B52" s="53"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -14332,10 +14391,10 @@
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
-      <c r="AG52" s="52"/>
+      <c r="AG52" s="46"/>
     </row>
     <row r="53" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B53" s="53"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -14366,10 +14425,10 @@
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
-      <c r="AG53" s="52"/>
+      <c r="AG53" s="46"/>
     </row>
     <row r="54" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B54" s="53"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -14400,10 +14459,10 @@
       <c r="AD54" s="10"/>
       <c r="AE54" s="10"/>
       <c r="AF54" s="10"/>
-      <c r="AG54" s="52"/>
+      <c r="AG54" s="46"/>
     </row>
     <row r="55" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -14434,10 +14493,10 @@
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
       <c r="AF55" s="10"/>
-      <c r="AG55" s="52"/>
+      <c r="AG55" s="46"/>
     </row>
     <row r="56" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -14468,10 +14527,10 @@
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="10"/>
-      <c r="AG56" s="52"/>
+      <c r="AG56" s="46"/>
     </row>
     <row r="57" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B57" s="53"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -14502,10 +14561,10 @@
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="10"/>
-      <c r="AG57" s="52"/>
+      <c r="AG57" s="46"/>
     </row>
     <row r="58" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B58" s="53"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -14536,41 +14595,41 @@
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
       <c r="AF58" s="10"/>
-      <c r="AG58" s="52"/>
+      <c r="AG58" s="46"/>
     </row>
     <row r="59" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="58"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="59"/>
-      <c r="AG59" s="62"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="53"/>
+      <c r="AF59" s="53"/>
+      <c r="AG59" s="56"/>
     </row>
     <row r="63" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B63" s="15" t="s">
@@ -14591,10 +14650,10 @@
       <c r="X63" s="17"/>
     </row>
     <row r="64" spans="2:33" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="38" t="s">
         <v>155</v>
       </c>
       <c r="D64" s="10"/>
@@ -14610,10 +14669,10 @@
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
       <c r="P64" s="25"/>
-      <c r="S64" s="43" t="s">
+      <c r="S64" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="T64" s="44" t="s">
+      <c r="T64" s="38" t="s">
         <v>155</v>
       </c>
       <c r="U64" s="10"/>
@@ -15137,10 +15196,10 @@
       <c r="AO83" s="17"/>
     </row>
     <row r="84" spans="2:50" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="38" t="s">
         <v>155</v>
       </c>
       <c r="D84" s="10"/>
@@ -15156,10 +15215,10 @@
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
       <c r="P84" s="25"/>
-      <c r="S84" s="43" t="s">
+      <c r="S84" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="T84" s="44" t="s">
+      <c r="T84" s="38" t="s">
         <v>155</v>
       </c>
       <c r="U84" s="10"/>
@@ -15175,10 +15234,10 @@
       <c r="AE84" s="24"/>
       <c r="AF84" s="24"/>
       <c r="AG84" s="25"/>
-      <c r="AJ84" s="43" t="s">
+      <c r="AJ84" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AK84" s="44" t="s">
+      <c r="AK84" s="38" t="s">
         <v>155</v>
       </c>
       <c r="AL84" s="10"/>
